--- a/results/mp/tinybert/corona/confidence/42/stop-words-masking-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/42/stop-words-masking-0.2/avg_0.004_scores.xlsx
@@ -52,15 +52,12 @@
     <t>low</t>
   </si>
   <si>
+    <t>emergency</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
@@ -73,78 +70,78 @@
     <t>negative</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>best</t>
+    <t>great</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>free</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>free</t>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
     <t>join</t>
   </si>
   <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
-    <t>important</t>
+    <t>like</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
     <t>care</t>
   </si>
   <si>
@@ -157,27 +154,27 @@
     <t>please</t>
   </si>
   <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
     <t>increase</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
     <t>online</t>
   </si>
   <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
     <t>store</t>
   </si>
   <si>
@@ -187,16 +184,19 @@
     <t>consumer</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>supermarket</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
     <t>food</t>
   </si>
   <si>
     <t>co</t>
+  </si>
+  <si>
+    <t>corona</t>
   </si>
 </sst>
 </file>
@@ -554,7 +554,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q44"/>
+  <dimension ref="A1:Q45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -562,10 +562,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -644,16 +644,16 @@
         <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K3">
-        <v>0.9696969696969697</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="L3">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="M3">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -694,16 +694,16 @@
         <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K4">
-        <v>0.9615384615384616</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L4">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="M4">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -723,13 +723,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.702054794520548</v>
+        <v>0.7054794520547946</v>
       </c>
       <c r="C5">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D5">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -741,19 +741,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K5">
-        <v>0.9565217391304348</v>
+        <v>0.9661016949152542</v>
       </c>
       <c r="L5">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="M5">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -773,13 +773,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.3959731543624161</v>
+        <v>0.3758389261744967</v>
       </c>
       <c r="C6">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D6">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -791,19 +791,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K6">
-        <v>0.9491525423728814</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L6">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="M6">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -823,13 +823,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.3643410852713178</v>
+        <v>0.3733333333333334</v>
       </c>
       <c r="C7">
-        <v>188</v>
+        <v>28</v>
       </c>
       <c r="D7">
-        <v>188</v>
+        <v>28</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -841,19 +841,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>328</v>
+        <v>47</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K7">
-        <v>0.8611111111111112</v>
+        <v>0.8392857142857143</v>
       </c>
       <c r="L7">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="M7">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -873,13 +873,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.3466666666666667</v>
+        <v>0.3662790697674418</v>
       </c>
       <c r="C8">
-        <v>26</v>
+        <v>189</v>
       </c>
       <c r="D8">
-        <v>26</v>
+        <v>189</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>49</v>
+        <v>327</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K8">
-        <v>0.8482142857142857</v>
+        <v>0.8297872340425532</v>
       </c>
       <c r="L8">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="M8">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -923,13 +923,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.3376623376623377</v>
+        <v>0.3121693121693122</v>
       </c>
       <c r="C9">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="D9">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>51</v>
+        <v>130</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K9">
-        <v>0.8292682926829268</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="L9">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="M9">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -973,13 +973,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.3068783068783069</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="C10">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D10">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -991,19 +991,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>131</v>
+        <v>204</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K10">
-        <v>0.8125</v>
+        <v>0.8203125</v>
       </c>
       <c r="L10">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M10">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1023,13 +1023,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.1904761904761905</v>
+        <v>0.1206434316353887</v>
       </c>
       <c r="C11">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D11">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1041,69 +1041,45 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>204</v>
+        <v>328</v>
       </c>
       <c r="J11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11">
+        <v>0.8170731707317073</v>
+      </c>
+      <c r="L11">
+        <v>67</v>
+      </c>
+      <c r="M11">
+        <v>67</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="J12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K11">
-        <v>0.8103448275862069</v>
-      </c>
-      <c r="L11">
-        <v>47</v>
-      </c>
-      <c r="M11">
-        <v>47</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>0.09919571045576407</v>
-      </c>
-      <c r="C12">
-        <v>37</v>
-      </c>
-      <c r="D12">
-        <v>37</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>336</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="K12">
-        <v>0.8083333333333333</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="L12">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M12">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1115,12 +1091,12 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K13">
         <v>0.8055555555555556</v>
@@ -1146,16 +1122,16 @@
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K14">
-        <v>0.7872340425531915</v>
+        <v>0.7816901408450704</v>
       </c>
       <c r="L14">
-        <v>37</v>
+        <v>111</v>
       </c>
       <c r="M14">
-        <v>37</v>
+        <v>111</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1167,21 +1143,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>10</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K15">
-        <v>0.7816901408450704</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="L15">
-        <v>111</v>
+        <v>37</v>
       </c>
       <c r="M15">
-        <v>111</v>
+        <v>37</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1193,21 +1169,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K16">
-        <v>0.7301587301587301</v>
+        <v>0.7127659574468085</v>
       </c>
       <c r="L16">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="M16">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1219,21 +1195,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K17">
-        <v>0.7254901960784313</v>
+        <v>0.7075471698113207</v>
       </c>
       <c r="L17">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="M17">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1245,21 +1221,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K18">
-        <v>0.7169811320754716</v>
+        <v>0.6984126984126984</v>
       </c>
       <c r="L18">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="M18">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1271,21 +1247,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K19">
-        <v>0.7021276595744681</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="L19">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="M19">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1297,21 +1273,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K20">
-        <v>0.675</v>
+        <v>0.68125</v>
       </c>
       <c r="L20">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M20">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1323,21 +1299,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K21">
-        <v>0.6744186046511628</v>
+        <v>0.6279069767441861</v>
       </c>
       <c r="L21">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M21">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1349,21 +1325,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K22">
-        <v>0.6318537859007833</v>
+        <v>0.625</v>
       </c>
       <c r="L22">
-        <v>242</v>
+        <v>30</v>
       </c>
       <c r="M22">
-        <v>242</v>
+        <v>30</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1375,12 +1351,12 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>141</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K23">
         <v>0.6222222222222222</v>
@@ -1406,16 +1382,16 @@
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K24">
-        <v>0.62</v>
+        <v>0.6135770234986945</v>
       </c>
       <c r="L24">
-        <v>31</v>
+        <v>235</v>
       </c>
       <c r="M24">
-        <v>31</v>
+        <v>235</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1427,21 +1403,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>19</v>
+        <v>148</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K25">
-        <v>0.6041666666666666</v>
+        <v>0.5852941176470589</v>
       </c>
       <c r="L25">
-        <v>29</v>
+        <v>199</v>
       </c>
       <c r="M25">
-        <v>29</v>
+        <v>199</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1453,21 +1429,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>19</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K26">
-        <v>0.5823529411764706</v>
+        <v>0.58</v>
       </c>
       <c r="L26">
-        <v>198</v>
+        <v>29</v>
       </c>
       <c r="M26">
-        <v>198</v>
+        <v>29</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1479,21 +1455,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>142</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K27">
-        <v>0.5617977528089888</v>
+        <v>0.550561797752809</v>
       </c>
       <c r="L27">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M27">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1505,21 +1481,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K28">
-        <v>0.5389830508474577</v>
+        <v>0.5491525423728814</v>
       </c>
       <c r="L28">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="M28">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1531,12 +1507,12 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K29">
         <v>0.4923076923076923</v>
@@ -1562,16 +1538,16 @@
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K30">
-        <v>0.4895397489539749</v>
+        <v>0.4686192468619247</v>
       </c>
       <c r="L30">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="M30">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1583,21 +1559,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K31">
-        <v>0.4615384615384616</v>
+        <v>0.4383561643835616</v>
       </c>
       <c r="L31">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="M31">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1609,21 +1585,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K32">
-        <v>0.4383561643835616</v>
+        <v>0.4375</v>
       </c>
       <c r="L32">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M32">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1635,21 +1611,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K33">
-        <v>0.421875</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="L33">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="M33">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1661,12 +1637,12 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K34">
         <v>0.4</v>
@@ -1692,16 +1668,16 @@
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K35">
-        <v>0.1196172248803828</v>
+        <v>0.1162790697674419</v>
       </c>
       <c r="L35">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="M35">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1713,21 +1689,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>368</v>
+        <v>190</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K36">
-        <v>0.1129807692307692</v>
+        <v>0.1081730769230769</v>
       </c>
       <c r="L36">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M36">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1739,21 +1715,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K37">
-        <v>0.08256880733944955</v>
+        <v>0.1076555023923445</v>
       </c>
       <c r="L37">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="M37">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1765,21 +1741,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>300</v>
+        <v>373</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K38">
-        <v>0.07046979865771812</v>
+        <v>0.07494407158836688</v>
       </c>
       <c r="L38">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="M38">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1791,21 +1767,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>831</v>
+        <v>827</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K39">
-        <v>0.06326304106548279</v>
+        <v>0.04994450610432852</v>
       </c>
       <c r="L39">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="M39">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1817,137 +1793,163 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>844</v>
+        <v>856</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K40">
-        <v>0.04629629629629629</v>
+        <v>0.04622496147919877</v>
       </c>
       <c r="L40">
         <v>30</v>
       </c>
       <c r="M40">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N40">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="O40">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P40" t="b">
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K41">
-        <v>0.04157043879907621</v>
+        <v>0.04536950420954163</v>
       </c>
       <c r="L41">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="M41">
-        <v>37</v>
+        <v>102</v>
       </c>
       <c r="N41">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="O41">
-        <v>0.03000000000000003</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P41" t="b">
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>830</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K42">
-        <v>0.0364656381486676</v>
+        <v>0.0392156862745098</v>
       </c>
       <c r="L42">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="M42">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="N42">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O42">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>2061</v>
+        <v>833</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K43">
-        <v>0.02590673575129534</v>
+        <v>0.02685950413223141</v>
       </c>
       <c r="L43">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M43">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N43">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="O43">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43">
-        <v>940</v>
+        <v>942</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K44">
+        <v>0.02032258064516129</v>
+      </c>
+      <c r="L44">
+        <v>63</v>
+      </c>
+      <c r="M44">
+        <v>70</v>
+      </c>
+      <c r="N44">
+        <v>0.9</v>
+      </c>
+      <c r="O44">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="P44" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q44">
+        <v>3037</v>
+      </c>
+    </row>
+    <row r="45" spans="10:17">
+      <c r="J45" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="K44">
-        <v>0.01903839948370442</v>
-      </c>
-      <c r="L44">
-        <v>59</v>
-      </c>
-      <c r="M44">
-        <v>67</v>
-      </c>
-      <c r="N44">
-        <v>0.88</v>
-      </c>
-      <c r="O44">
-        <v>0.12</v>
-      </c>
-      <c r="P44" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q44">
-        <v>3040</v>
+      <c r="K45">
+        <v>0.0112781954887218</v>
+      </c>
+      <c r="L45">
+        <v>36</v>
+      </c>
+      <c r="M45">
+        <v>45</v>
+      </c>
+      <c r="N45">
+        <v>0.8</v>
+      </c>
+      <c r="O45">
+        <v>0.2</v>
+      </c>
+      <c r="P45" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q45">
+        <v>3156</v>
       </c>
     </row>
   </sheetData>
